--- a/Energia_GHI.xlsx
+++ b/Energia_GHI.xlsx
@@ -437,19 +437,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>21</v>
+        <v>585</v>
       </c>
       <c r="D2">
-        <v>0.1115656377835627</v>
+        <v>3.055628101331941</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
       </c>
       <c r="G2">
-        <v>5001</v>
+        <v>6726</v>
       </c>
       <c r="H2">
-        <v>26.56855974074271</v>
+        <v>35.13188822146775</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -460,19 +460,19 @@
         <v>50</v>
       </c>
       <c r="C3">
-        <v>1113</v>
+        <v>1282</v>
       </c>
       <c r="D3">
-        <v>5.912978802528821</v>
+        <v>6.696265343431705</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
       </c>
       <c r="G3">
-        <v>7166</v>
+        <v>7800</v>
       </c>
       <c r="H3">
-        <v>38.07044573128619</v>
+        <v>40.7417080177592</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -483,19 +483,19 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>1136</v>
+        <v>1292</v>
       </c>
       <c r="D4">
-        <v>6.035169739148913</v>
+        <v>6.748498302428832</v>
       </c>
       <c r="F4" t="s">
         <v>6</v>
       </c>
       <c r="G4">
-        <v>6623</v>
+        <v>4397</v>
       </c>
       <c r="H4">
-        <v>35.18567709716835</v>
+        <v>22.96683207103683</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -506,19 +506,19 @@
         <v>150</v>
       </c>
       <c r="C5">
-        <v>941</v>
+        <v>1209</v>
       </c>
       <c r="D5">
-        <v>4.99920310258726</v>
+        <v>6.314964742752677</v>
       </c>
       <c r="F5" t="s">
         <v>7</v>
       </c>
       <c r="G5">
-        <v>33</v>
+        <v>222</v>
       </c>
       <c r="H5">
-        <v>0.1753174308027413</v>
+        <v>1.159571689736224</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -529,10 +529,10 @@
         <v>200</v>
       </c>
       <c r="C6">
-        <v>917</v>
+        <v>1163</v>
       </c>
       <c r="D6">
-        <v>4.871699516548903</v>
+        <v>6.074693131365891</v>
       </c>
       <c r="F6" t="s">
         <v>8</v>
@@ -552,10 +552,10 @@
         <v>250</v>
       </c>
       <c r="C7">
-        <v>873</v>
+        <v>1195</v>
       </c>
       <c r="D7">
-        <v>4.637942942145248</v>
+        <v>6.241838600156699</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -566,10 +566,10 @@
         <v>300</v>
       </c>
       <c r="C8">
-        <v>825</v>
+        <v>1199</v>
       </c>
       <c r="D8">
-        <v>4.382935770068533</v>
+        <v>6.26273178375555</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -580,10 +580,10 @@
         <v>350</v>
       </c>
       <c r="C9">
-        <v>871</v>
+        <v>1136</v>
       </c>
       <c r="D9">
-        <v>4.627317643308718</v>
+        <v>5.933664142073648</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -594,10 +594,10 @@
         <v>400</v>
       </c>
       <c r="C10">
-        <v>893</v>
+        <v>1050</v>
       </c>
       <c r="D10">
-        <v>4.744195930510545</v>
+        <v>5.484460694698354</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -608,10 +608,10 @@
         <v>450</v>
       </c>
       <c r="C11">
-        <v>823</v>
+        <v>1019</v>
       </c>
       <c r="D11">
-        <v>4.372310471232003</v>
+        <v>5.32253852180726</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -622,10 +622,10 @@
         <v>500</v>
       </c>
       <c r="C12">
-        <v>874</v>
+        <v>970</v>
       </c>
       <c r="D12">
-        <v>4.643255591563513</v>
+        <v>5.066597022721337</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -636,10 +636,10 @@
         <v>550</v>
       </c>
       <c r="C13">
-        <v>945</v>
+        <v>893</v>
       </c>
       <c r="D13">
-        <v>5.02045370026032</v>
+        <v>4.664403238443458</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -650,10 +650,10 @@
         <v>600</v>
       </c>
       <c r="C14">
-        <v>884</v>
+        <v>752</v>
       </c>
       <c r="D14">
-        <v>4.696382085746162</v>
+        <v>3.927918516583964</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -664,10 +664,10 @@
         <v>650</v>
       </c>
       <c r="C15">
-        <v>1051</v>
+        <v>781</v>
       </c>
       <c r="D15">
-        <v>5.583594538596398</v>
+        <v>4.079394097675634</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -678,10 +678,10 @@
         <v>700</v>
       </c>
       <c r="C16">
-        <v>1302</v>
+        <v>828</v>
       </c>
       <c r="D16">
-        <v>6.917069542580885</v>
+        <v>4.324889004962131</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -692,10 +692,10 @@
         <v>750</v>
       </c>
       <c r="C17">
-        <v>1556</v>
+        <v>801</v>
       </c>
       <c r="D17">
-        <v>8.266482494820167</v>
+        <v>4.183860015669888</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -706,10 +706,10 @@
         <v>800</v>
       </c>
       <c r="C18">
-        <v>1208</v>
+        <v>1028</v>
       </c>
       <c r="D18">
-        <v>6.417680497263986</v>
+        <v>5.369548184904675</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -720,10 +720,10 @@
         <v>850</v>
       </c>
       <c r="C19">
-        <v>1248</v>
+        <v>1017</v>
       </c>
       <c r="D19">
-        <v>6.630186473994581</v>
+        <v>5.312091930007835</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -734,10 +734,10 @@
         <v>900</v>
       </c>
       <c r="C20">
-        <v>1028</v>
+        <v>439</v>
       </c>
       <c r="D20">
-        <v>5.461403601976306</v>
+        <v>2.293026899973883</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -748,10 +748,10 @@
         <v>950</v>
       </c>
       <c r="C21">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D21">
-        <v>1.492854486532434</v>
+        <v>1.483416035518412</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -762,10 +762,10 @@
         <v>1000</v>
       </c>
       <c r="C22">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="D22">
-        <v>0.1487541837114169</v>
+        <v>0.6372420997649517</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -776,10 +776,10 @@
         <v>1050</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="D23">
-        <v>0.01062529883652978</v>
+        <v>0.334290937581614</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -790,10 +790,10 @@
         <v>1100</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="D24">
-        <v>0.01062529883652978</v>
+        <v>0.1410289892922434</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -804,10 +804,10 @@
         <v>1150</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D25">
-        <v>0.005312649418264889</v>
+        <v>0.04700966309741447</v>
       </c>
     </row>
     <row r="26" spans="1:4">
